--- a/Import Data/15x7.xlsx
+++ b/Import Data/15x7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe1ca5d0fde44768/Documents/UCSD/dbf-propulsions/Import Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD41E43-04D4-49D0-976E-5B374957C273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59305892-7F82-465C-B391-19F50A26B4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="2076" windowWidth="20736" windowHeight="10440" xr2:uid="{31B3CEEC-107A-4B0B-988F-6638385E4C01}"/>
+    <workbookView xWindow="20700" yWindow="4665" windowWidth="14130" windowHeight="14790" xr2:uid="{31B3CEEC-107A-4B0B-988F-6638385E4C01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="46">
   <si>
     <t>15x7</t>
   </si>
@@ -196,12 +174,6 @@
   </si>
   <si>
     <t>(Lbf)</t>
-  </si>
-  <si>
-    <t>0.60-NaN</t>
-  </si>
-  <si>
-    <t>0.62-NaN</t>
   </si>
 </sst>
 </file>
@@ -557,12 +529,12 @@
   <dimension ref="A1:I565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B561" sqref="B561"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +545,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -602,12 +574,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -618,7 +590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -641,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -664,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -672,7 +644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -689,7 +661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -703,7 +675,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -729,7 +701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -749,7 +721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -775,7 +747,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.3</v>
       </c>
@@ -801,7 +773,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.7</v>
       </c>
@@ -827,7 +799,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -853,7 +825,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.3</v>
       </c>
@@ -879,7 +851,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.6</v>
       </c>
@@ -905,7 +877,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -931,7 +903,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.2999999999999998</v>
       </c>
@@ -957,7 +929,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.6</v>
       </c>
@@ -983,7 +955,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.9</v>
       </c>
@@ -1009,7 +981,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.3</v>
       </c>
@@ -1035,7 +1007,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.6</v>
       </c>
@@ -1061,7 +1033,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3.9</v>
       </c>
@@ -1087,7 +1059,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.3</v>
       </c>
@@ -1113,7 +1085,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4.5999999999999996</v>
       </c>
@@ -1139,7 +1111,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4.9000000000000004</v>
       </c>
@@ -1165,7 +1137,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.2</v>
       </c>
@@ -1191,7 +1163,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5.6</v>
       </c>
@@ -1217,7 +1189,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5.9</v>
       </c>
@@ -1243,7 +1215,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6.2</v>
       </c>
@@ -1269,7 +1241,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6.5</v>
       </c>
@@ -1295,7 +1267,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6.9</v>
       </c>
@@ -1321,7 +1293,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7.2</v>
       </c>
@@ -1347,7 +1319,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7.5</v>
       </c>
@@ -1373,7 +1345,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7.9</v>
       </c>
@@ -1399,7 +1371,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8.1999999999999993</v>
       </c>
@@ -1425,7 +1397,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8.5</v>
       </c>
@@ -1451,7 +1423,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8.8000000000000007</v>
       </c>
@@ -1477,7 +1449,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9.1999999999999993</v>
       </c>
@@ -1503,7 +1475,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9.5</v>
       </c>
@@ -1529,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1543,7 +1515,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1569,7 +1541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1589,7 +1561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1615,7 +1587,7 @@
         <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.7</v>
       </c>
@@ -1641,7 +1613,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.3</v>
       </c>
@@ -1667,7 +1639,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1693,7 +1665,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.6</v>
       </c>
@@ -1719,7 +1691,7 @@
         <v>0.59599999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3.3</v>
       </c>
@@ -1745,7 +1717,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3.9</v>
       </c>
@@ -1771,7 +1743,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4.5999999999999996</v>
       </c>
@@ -1797,7 +1769,7 @@
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5.2</v>
       </c>
@@ -1823,7 +1795,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5.9</v>
       </c>
@@ -1849,7 +1821,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6.5</v>
       </c>
@@ -1875,7 +1847,7 @@
         <v>0.498</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>7.2</v>
       </c>
@@ -1901,7 +1873,7 @@
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7.8</v>
       </c>
@@ -1927,7 +1899,7 @@
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>8.5</v>
       </c>
@@ -1953,7 +1925,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9.1999999999999993</v>
       </c>
@@ -1979,7 +1951,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9.8000000000000007</v>
       </c>
@@ -2005,7 +1977,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10.5</v>
       </c>
@@ -2031,7 +2003,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>11.1</v>
       </c>
@@ -2057,7 +2029,7 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>11.8</v>
       </c>
@@ -2083,7 +2055,7 @@
         <v>0.314</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12.4</v>
       </c>
@@ -2109,7 +2081,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13.1</v>
       </c>
@@ -2135,7 +2107,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>13.7</v>
       </c>
@@ -2161,7 +2133,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>14.4</v>
       </c>
@@ -2187,7 +2159,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>15</v>
       </c>
@@ -2213,7 +2185,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>15.7</v>
       </c>
@@ -2239,7 +2211,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>16.399999999999999</v>
       </c>
@@ -2265,7 +2237,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>17</v>
       </c>
@@ -2291,7 +2263,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>17.7</v>
       </c>
@@ -2317,7 +2289,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>18.3</v>
       </c>
@@ -2343,7 +2315,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>19</v>
       </c>
@@ -2369,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2383,7 +2355,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2409,7 +2381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2429,7 +2401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2455,7 +2427,7 @@
         <v>1.4370000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2481,7 +2453,7 @@
         <v>1.417</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -2507,7 +2479,7 @@
         <v>1.3939999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2.9</v>
       </c>
@@ -2533,7 +2505,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3.9</v>
       </c>
@@ -2559,7 +2531,7 @@
         <v>1.343</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4.9000000000000004</v>
       </c>
@@ -2585,7 +2557,7 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5.9</v>
       </c>
@@ -2611,7 +2583,7 @@
         <v>1.2809999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6.9</v>
       </c>
@@ -2637,7 +2609,7 @@
         <v>1.246</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>7.8</v>
       </c>
@@ -2663,7 +2635,7 @@
         <v>1.2090000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>8.8000000000000007</v>
       </c>
@@ -2689,7 +2661,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9.8000000000000007</v>
       </c>
@@ -2715,7 +2687,7 @@
         <v>1.123</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10.8</v>
       </c>
@@ -2741,7 +2713,7 @@
         <v>1.075</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>11.8</v>
       </c>
@@ -2767,7 +2739,7 @@
         <v>1.0269999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>12.7</v>
       </c>
@@ -2793,7 +2765,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>13.7</v>
       </c>
@@ -2819,7 +2791,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>14.7</v>
       </c>
@@ -2845,7 +2817,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>15.7</v>
       </c>
@@ -2871,7 +2843,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>16.7</v>
       </c>
@@ -2897,7 +2869,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>17.7</v>
       </c>
@@ -2923,7 +2895,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>18.600000000000001</v>
       </c>
@@ -2949,7 +2921,7 @@
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>19.600000000000001</v>
       </c>
@@ -2975,7 +2947,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20.6</v>
       </c>
@@ -3001,7 +2973,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>21.6</v>
       </c>
@@ -3027,7 +2999,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>22.6</v>
       </c>
@@ -3053,7 +3025,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>23.5</v>
       </c>
@@ -3079,7 +3051,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>24.5</v>
       </c>
@@ -3105,7 +3077,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>25.5</v>
       </c>
@@ -3131,7 +3103,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>26.5</v>
       </c>
@@ -3157,7 +3129,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>27.5</v>
       </c>
@@ -3183,7 +3155,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>28.4</v>
       </c>
@@ -3209,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3223,7 +3195,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3249,7 +3221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3269,7 +3241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3295,7 +3267,7 @@
         <v>2.5670000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1.3</v>
       </c>
@@ -3321,7 +3293,7 @@
         <v>2.5310000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2.6</v>
       </c>
@@ -3347,7 +3319,7 @@
         <v>2.4910000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3.9</v>
       </c>
@@ -3373,7 +3345,7 @@
         <v>2.4470000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5.2</v>
       </c>
@@ -3399,7 +3371,7 @@
         <v>2.3980000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6.5</v>
       </c>
@@ -3425,7 +3397,7 @@
         <v>2.3460000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>7.8</v>
       </c>
@@ -3451,7 +3423,7 @@
         <v>2.2890000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9.1</v>
       </c>
@@ -3477,7 +3449,7 @@
         <v>2.2269999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>10.4</v>
       </c>
@@ -3503,7 +3475,7 @@
         <v>2.1589999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>11.7</v>
       </c>
@@ -3529,7 +3501,7 @@
         <v>2.0859999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>13.1</v>
       </c>
@@ -3555,7 +3527,7 @@
         <v>2.0049999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>14.4</v>
       </c>
@@ -3581,7 +3553,7 @@
         <v>1.921</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>15.7</v>
       </c>
@@ -3607,7 +3579,7 @@
         <v>1.833</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>17</v>
       </c>
@@ -3633,7 +3605,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>18.3</v>
       </c>
@@ -3659,7 +3631,7 @@
         <v>1.6519999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>19.600000000000001</v>
       </c>
@@ -3685,7 +3657,7 @@
         <v>1.5589999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>20.9</v>
       </c>
@@ -3711,7 +3683,7 @@
         <v>1.462</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>22.2</v>
       </c>
@@ -3737,7 +3709,7 @@
         <v>1.3640000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>23.5</v>
       </c>
@@ -3763,7 +3735,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>24.8</v>
       </c>
@@ -3789,7 +3761,7 @@
         <v>1.159</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>26.1</v>
       </c>
@@ -3815,7 +3787,7 @@
         <v>1.052</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>27.4</v>
       </c>
@@ -3841,7 +3813,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>28.7</v>
       </c>
@@ -3867,7 +3839,7 @@
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>30</v>
       </c>
@@ -3893,7 +3865,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>31.3</v>
       </c>
@@ -3919,7 +3891,7 @@
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>32.6</v>
       </c>
@@ -3945,7 +3917,7 @@
         <v>0.48599999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>33.9</v>
       </c>
@@ -3971,7 +3943,7 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>35.200000000000003</v>
       </c>
@@ -3997,7 +3969,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>36.5</v>
       </c>
@@ -4023,7 +3995,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>37.9</v>
       </c>
@@ -4049,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -4063,7 +4035,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4089,7 +4061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4109,7 +4081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4135,7 +4107,7 @@
         <v>4.0579999999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1.6</v>
       </c>
@@ -4161,7 +4133,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3.3</v>
       </c>
@@ -4187,7 +4159,7 @@
         <v>3.9340000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>4.9000000000000004</v>
       </c>
@@ -4213,7 +4185,7 @@
         <v>3.863</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6.5</v>
       </c>
@@ -4239,7 +4211,7 @@
         <v>3.7850000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>8.1999999999999993</v>
       </c>
@@ -4265,7 +4237,7 @@
         <v>3.6989999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>9.8000000000000007</v>
       </c>
@@ -4291,7 +4263,7 @@
         <v>3.6070000000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>11.4</v>
       </c>
@@ -4317,7 +4289,7 @@
         <v>3.5070000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>13.1</v>
       </c>
@@ -4343,7 +4315,7 @@
         <v>3.399</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>14.7</v>
       </c>
@@ -4369,7 +4341,7 @@
         <v>3.282</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>16.3</v>
       </c>
@@ -4395,7 +4367,7 @@
         <v>3.1539999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>17.899999999999999</v>
       </c>
@@ -4421,7 +4393,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>19.600000000000001</v>
       </c>
@@ -4447,7 +4419,7 @@
         <v>2.883</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>21.2</v>
       </c>
@@ -4473,7 +4445,7 @@
         <v>2.7429999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>22.8</v>
       </c>
@@ -4499,7 +4471,7 @@
         <v>2.5979999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>24.5</v>
       </c>
@@ -4525,7 +4497,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>26.1</v>
       </c>
@@ -4551,7 +4523,7 @@
         <v>2.2989999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>27.7</v>
       </c>
@@ -4577,7 +4549,7 @@
         <v>2.1429999999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>29.4</v>
       </c>
@@ -4603,7 +4575,7 @@
         <v>1.984</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>31</v>
       </c>
@@ -4629,7 +4601,7 @@
         <v>1.821</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>32.6</v>
       </c>
@@ -4655,7 +4627,7 @@
         <v>1.6539999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>34.299999999999997</v>
       </c>
@@ -4681,7 +4653,7 @@
         <v>1.4830000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>35.9</v>
       </c>
@@ -4707,7 +4679,7 @@
         <v>1.3089999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>37.5</v>
       </c>
@@ -4733,7 +4705,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>39.200000000000003</v>
       </c>
@@ -4759,7 +4731,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>40.799999999999997</v>
       </c>
@@ -4785,7 +4757,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>42.4</v>
       </c>
@@ -4811,7 +4783,7 @@
         <v>0.57799999999999996</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>44</v>
       </c>
@@ -4837,7 +4809,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>45.7</v>
       </c>
@@ -4863,7 +4835,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>47.3</v>
       </c>
@@ -4889,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4903,7 +4875,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4929,7 +4901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4949,7 +4921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4975,7 +4947,7 @@
         <v>5.9219999999999997</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2</v>
       </c>
@@ -5001,7 +4973,7 @@
         <v>5.8339999999999996</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3.9</v>
       </c>
@@ -5027,7 +4999,7 @@
         <v>5.7380000000000004</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>5.9</v>
       </c>
@@ -5053,7 +5025,7 @@
         <v>5.6310000000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>7.8</v>
       </c>
@@ -5079,7 +5051,7 @@
         <v>5.5140000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>9.8000000000000007</v>
       </c>
@@ -5105,7 +5077,7 @@
         <v>5.3879999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>11.7</v>
       </c>
@@ -5131,7 +5103,7 @@
         <v>5.2489999999999997</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>13.7</v>
       </c>
@@ -5157,7 +5129,7 @@
         <v>5.101</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>15.7</v>
       </c>
@@ -5183,7 +5155,7 @@
         <v>4.9409999999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>17.600000000000001</v>
       </c>
@@ -5209,7 +5181,7 @@
         <v>4.7679999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>19.600000000000001</v>
       </c>
@@ -5235,7 +5207,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>21.5</v>
       </c>
@@ -5261,7 +5233,7 @@
         <v>4.3860000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>23.5</v>
       </c>
@@ -5287,7 +5259,7 @@
         <v>4.1870000000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>25.4</v>
       </c>
@@ -5313,7 +5285,7 @@
         <v>3.9830000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>27.4</v>
       </c>
@@ -5339,7 +5311,7 @@
         <v>3.7730000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>29.4</v>
       </c>
@@ -5365,7 +5337,7 @@
         <v>3.5579999999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>31.3</v>
       </c>
@@ -5391,7 +5363,7 @@
         <v>3.3380000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>33.299999999999997</v>
       </c>
@@ -5417,7 +5389,7 @@
         <v>3.1120000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>35.200000000000003</v>
       </c>
@@ -5443,7 +5415,7 @@
         <v>2.8809999999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>37.200000000000003</v>
       </c>
@@ -5469,7 +5441,7 @@
         <v>2.6440000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>39.1</v>
       </c>
@@ -5495,7 +5467,7 @@
         <v>2.4020000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>41.1</v>
       </c>
@@ -5521,7 +5493,7 @@
         <v>2.1539999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>43.1</v>
       </c>
@@ -5547,7 +5519,7 @@
         <v>1.9019999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>45</v>
       </c>
@@ -5573,7 +5545,7 @@
         <v>1.6439999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>47</v>
       </c>
@@ -5599,7 +5571,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>48.9</v>
       </c>
@@ -5625,7 +5597,7 @@
         <v>1.1120000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>50.9</v>
       </c>
@@ -5651,7 +5623,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>52.9</v>
       </c>
@@ -5677,7 +5649,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>54.8</v>
       </c>
@@ -5703,7 +5675,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>56.8</v>
       </c>
@@ -5729,7 +5701,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5743,7 +5715,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5769,7 +5741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5789,7 +5761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5815,7 +5787,7 @@
         <v>8.1780000000000008</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2.2999999999999998</v>
       </c>
@@ -5841,7 +5813,7 @@
         <v>8.0549999999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4.5999999999999996</v>
       </c>
@@ -5867,7 +5839,7 @@
         <v>7.9180000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>6.9</v>
       </c>
@@ -5893,7 +5865,7 @@
         <v>7.7670000000000003</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>9.1</v>
       </c>
@@ -5919,7 +5891,7 @@
         <v>7.6029999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>11.4</v>
       </c>
@@ -5945,7 +5917,7 @@
         <v>7.4240000000000004</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>13.7</v>
       </c>
@@ -5971,7 +5943,7 @@
         <v>7.2309999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>16</v>
       </c>
@@ -5997,7 +5969,7 @@
         <v>7.0229999999999997</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>18.3</v>
       </c>
@@ -6023,7 +5995,7 @@
         <v>6.7990000000000004</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>20.6</v>
       </c>
@@ -6049,7 +6021,7 @@
         <v>6.5590000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>22.8</v>
       </c>
@@ -6075,7 +6047,7 @@
         <v>6.2990000000000004</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>25.1</v>
       </c>
@@ -6101,7 +6073,7 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>27.4</v>
       </c>
@@ -6127,7 +6099,7 @@
         <v>5.7569999999999997</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>29.7</v>
       </c>
@@ -6153,7 +6125,7 @@
         <v>5.476</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>32</v>
       </c>
@@ -6179,7 +6151,7 @@
         <v>5.1879999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>34.299999999999997</v>
       </c>
@@ -6205,7 +6177,7 @@
         <v>4.8920000000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>36.6</v>
       </c>
@@ -6231,7 +6203,7 @@
         <v>4.5880000000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>38.799999999999997</v>
       </c>
@@ -6257,7 +6229,7 @@
         <v>4.2779999999999996</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>41.1</v>
       </c>
@@ -6283,7 +6255,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>43.4</v>
       </c>
@@ -6309,7 +6281,7 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>45.7</v>
       </c>
@@ -6335,7 +6307,7 @@
         <v>3.2989999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>48</v>
       </c>
@@ -6361,7 +6333,7 @@
         <v>2.9580000000000002</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>50.3</v>
       </c>
@@ -6387,7 +6359,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>52.5</v>
       </c>
@@ -6413,7 +6385,7 @@
         <v>2.2549999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>54.8</v>
       </c>
@@ -6439,7 +6411,7 @@
         <v>1.893</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>57.1</v>
       </c>
@@ -6465,7 +6437,7 @@
         <v>1.524</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>59.4</v>
       </c>
@@ -6491,7 +6463,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>61.7</v>
       </c>
@@ -6517,7 +6489,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>64</v>
       </c>
@@ -6543,7 +6515,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>66.3</v>
       </c>
@@ -6569,7 +6541,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6583,7 +6555,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6609,7 +6581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6629,7 +6601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6655,7 +6627,7 @@
         <v>10.824</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2.6</v>
       </c>
@@ -6681,7 +6653,7 @@
         <v>10.662000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>5.2</v>
       </c>
@@ -6707,7 +6679,7 @@
         <v>10.481999999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>7.8</v>
       </c>
@@ -6733,7 +6705,7 @@
         <v>10.282999999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>10.4</v>
       </c>
@@ -6759,7 +6731,7 @@
         <v>10.063000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>13.1</v>
       </c>
@@ -6785,7 +6757,7 @@
         <v>9.8260000000000005</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>15.7</v>
       </c>
@@ -6811,7 +6783,7 @@
         <v>9.5690000000000008</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>18.3</v>
       </c>
@@ -6837,7 +6809,7 @@
         <v>9.2949999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>20.9</v>
       </c>
@@ -6863,7 +6835,7 @@
         <v>8.9969999999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>23.5</v>
       </c>
@@ -6889,7 +6861,7 @@
         <v>8.6780000000000008</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>26.1</v>
       </c>
@@ -6915,7 +6887,7 @@
         <v>8.3339999999999996</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>28.7</v>
       </c>
@@ -6941,7 +6913,7 @@
         <v>7.9770000000000003</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>31.3</v>
       </c>
@@ -6967,7 +6939,7 @@
         <v>7.6159999999999997</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>33.9</v>
       </c>
@@ -6993,7 +6965,7 @@
         <v>7.2460000000000004</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>36.5</v>
       </c>
@@ -7019,7 +6991,7 @@
         <v>6.8650000000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>39.200000000000003</v>
       </c>
@@ -7045,7 +7017,7 @@
         <v>6.4740000000000002</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>41.8</v>
       </c>
@@ -7071,7 +7043,7 @@
         <v>6.0730000000000004</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>44.4</v>
       </c>
@@ -7097,7 +7069,7 @@
         <v>5.6619999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>47</v>
       </c>
@@ -7123,7 +7095,7 @@
         <v>5.2409999999999997</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>49.6</v>
       </c>
@@ -7149,7 +7121,7 @@
         <v>4.8109999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>52.2</v>
       </c>
@@ -7175,7 +7147,7 @@
         <v>4.3710000000000004</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>54.8</v>
       </c>
@@ -7201,7 +7173,7 @@
         <v>3.9209999999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>57.4</v>
       </c>
@@ -7227,7 +7199,7 @@
         <v>3.4620000000000002</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>60</v>
       </c>
@@ -7253,7 +7225,7 @@
         <v>2.992</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>62.7</v>
       </c>
@@ -7279,7 +7251,7 @@
         <v>2.5089999999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>65.3</v>
       </c>
@@ -7305,7 +7277,7 @@
         <v>2.0230000000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>67.900000000000006</v>
       </c>
@@ -7331,7 +7303,7 @@
         <v>1.528</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>70.5</v>
       </c>
@@ -7357,7 +7329,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>73.099999999999994</v>
       </c>
@@ -7383,7 +7355,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>75.7</v>
       </c>
@@ -7409,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7423,7 +7395,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7449,7 +7421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7469,7 +7441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7495,7 +7467,7 @@
         <v>13.802</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2.9</v>
       </c>
@@ -7521,7 +7493,7 @@
         <v>13.611000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>5.9</v>
       </c>
@@ -7547,7 +7519,7 @@
         <v>13.394</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>8.8000000000000007</v>
       </c>
@@ -7573,7 +7545,7 @@
         <v>13.151</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>11.8</v>
       </c>
@@ -7599,7 +7571,7 @@
         <v>12.882999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>14.7</v>
       </c>
@@ -7625,7 +7597,7 @@
         <v>12.589</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>17.600000000000001</v>
       </c>
@@ -7651,7 +7623,7 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>20.6</v>
       </c>
@@ -7677,7 +7649,7 @@
         <v>11.923999999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>23.5</v>
       </c>
@@ -7703,7 +7675,7 @@
         <v>11.551</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>26.4</v>
       </c>
@@ -7729,7 +7701,7 @@
         <v>11.148999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>29.4</v>
       </c>
@@ -7755,7 +7727,7 @@
         <v>10.712</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>32.299999999999997</v>
       </c>
@@ -7781,7 +7753,7 @@
         <v>10.255000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>35.299999999999997</v>
       </c>
@@ -7807,7 +7779,7 @@
         <v>9.7899999999999991</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>38.200000000000003</v>
       </c>
@@ -7833,7 +7805,7 @@
         <v>9.3140000000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>41.1</v>
       </c>
@@ -7859,7 +7831,7 @@
         <v>8.8239999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>44.1</v>
       </c>
@@ -7885,7 +7857,7 @@
         <v>8.3219999999999992</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>47</v>
       </c>
@@ -7911,7 +7883,7 @@
         <v>7.8070000000000004</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>50</v>
       </c>
@@ -7937,7 +7909,7 @@
         <v>7.2789999999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>52.9</v>
       </c>
@@ -7963,7 +7935,7 @@
         <v>6.7380000000000004</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>55.8</v>
       </c>
@@ -7989,7 +7961,7 @@
         <v>6.1829999999999998</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>58.8</v>
       </c>
@@ -8015,7 +7987,7 @@
         <v>5.6159999999999997</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>61.7</v>
       </c>
@@ -8041,7 +8013,7 @@
         <v>5.0369999999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>64.599999999999994</v>
       </c>
@@ -8067,7 +8039,7 @@
         <v>4.4459999999999997</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>67.599999999999994</v>
       </c>
@@ -8093,7 +8065,7 @@
         <v>3.8410000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>70.5</v>
       </c>
@@ -8119,7 +8091,7 @@
         <v>3.2250000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>73.5</v>
       </c>
@@ -8145,7 +8117,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>76.400000000000006</v>
       </c>
@@ -8171,7 +8143,7 @@
         <v>1.964</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>79.3</v>
       </c>
@@ -8197,7 +8169,7 @@
         <v>1.3180000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>82.3</v>
       </c>
@@ -8223,7 +8195,7 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>85.2</v>
       </c>
@@ -8249,7 +8221,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8263,7 +8235,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8289,7 +8261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8309,7 +8281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8335,7 +8307,7 @@
         <v>17.204999999999998</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>3.3</v>
       </c>
@@ -8361,7 +8333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>6.5</v>
       </c>
@@ -8387,7 +8359,7 @@
         <v>16.751000000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>9.8000000000000007</v>
       </c>
@@ -8413,7 +8385,7 @@
         <v>16.463999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>13.1</v>
       </c>
@@ -8439,7 +8411,7 @@
         <v>16.141999999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>16.3</v>
       </c>
@@ -8465,7 +8437,7 @@
         <v>15.79</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>19.600000000000001</v>
       </c>
@@ -8491,7 +8463,7 @@
         <v>15.403</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>22.9</v>
       </c>
@@ -8517,7 +8489,7 @@
         <v>14.978999999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>26.1</v>
       </c>
@@ -8543,7 +8515,7 @@
         <v>14.52</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>29.4</v>
       </c>
@@ -8569,7 +8541,7 @@
         <v>14.023999999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>32.700000000000003</v>
       </c>
@@ -8595,7 +8567,7 @@
         <v>13.481</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>35.9</v>
       </c>
@@ -8621,7 +8593,7 @@
         <v>12.907999999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>39.200000000000003</v>
       </c>
@@ -8647,7 +8619,7 @@
         <v>12.324</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>42.4</v>
       </c>
@@ -8673,7 +8645,7 @@
         <v>11.725</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>45.7</v>
       </c>
@@ -8699,7 +8671,7 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>49</v>
       </c>
@@ -8725,7 +8697,7 @@
         <v>10.477</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>52.2</v>
       </c>
@@ -8751,7 +8723,7 @@
         <v>9.8279999999999994</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>55.5</v>
       </c>
@@ -8777,7 +8749,7 @@
         <v>9.1639999999999997</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>58.8</v>
       </c>
@@ -8803,7 +8775,7 @@
         <v>8.4830000000000005</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>62</v>
       </c>
@@ -8829,7 +8801,7 @@
         <v>7.7859999999999996</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>65.3</v>
       </c>
@@ -8855,7 +8827,7 @@
         <v>7.0739999999999998</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>68.599999999999994</v>
       </c>
@@ -8881,7 +8853,7 @@
         <v>6.3470000000000004</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>71.8</v>
       </c>
@@ -8907,7 +8879,7 @@
         <v>5.6029999999999998</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>75.099999999999994</v>
       </c>
@@ -8933,7 +8905,7 @@
         <v>4.8440000000000003</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>78.400000000000006</v>
       </c>
@@ -8959,7 +8931,7 @@
         <v>4.0720000000000001</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>81.599999999999994</v>
       </c>
@@ -8985,7 +8957,7 @@
         <v>3.2850000000000001</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>84.9</v>
       </c>
@@ -9011,7 +8983,7 @@
         <v>2.4830000000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>88.2</v>
       </c>
@@ -9037,7 +9009,7 @@
         <v>1.6679999999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>91.4</v>
       </c>
@@ -9063,7 +9035,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>94.7</v>
       </c>
@@ -9089,7 +9061,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9103,7 +9075,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9129,7 +9101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9149,7 +9121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9175,7 +9147,7 @@
         <v>20.957000000000001</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>3.6</v>
       </c>
@@ -9201,7 +9173,7 @@
         <v>20.870999999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>7.2</v>
       </c>
@@ -9227,7 +9199,7 @@
         <v>20.617000000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>10.8</v>
       </c>
@@ -9253,7 +9225,7 @@
         <v>20.295999999999999</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>14.4</v>
       </c>
@@ -9279,7 +9251,7 @@
         <v>19.922999999999998</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>18</v>
       </c>
@@ -9305,7 +9277,7 @@
         <v>19.503</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>21.6</v>
       </c>
@@ -9331,7 +9303,7 @@
         <v>19.038</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>25.2</v>
       </c>
@@ -9357,7 +9329,7 @@
         <v>18.527999999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>28.8</v>
       </c>
@@ -9383,7 +9355,7 @@
         <v>17.97</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>32.4</v>
       </c>
@@ -9409,7 +9381,7 @@
         <v>17.36</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>36</v>
       </c>
@@ -9435,7 +9407,7 @@
         <v>16.693000000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>39.6</v>
       </c>
@@ -9461,7 +9433,7 @@
         <v>15.981999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>43.2</v>
       </c>
@@ -9487,7 +9459,7 @@
         <v>15.254</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>46.8</v>
       </c>
@@ -9513,7 +9485,7 @@
         <v>14.507999999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>50.4</v>
       </c>
@@ -9539,7 +9511,7 @@
         <v>13.746</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>54</v>
       </c>
@@ -9565,7 +9537,7 @@
         <v>12.961</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>57.6</v>
       </c>
@@ -9591,7 +9563,7 @@
         <v>12.157</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>61.2</v>
       </c>
@@ -9617,7 +9589,7 @@
         <v>11.333</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>64.8</v>
       </c>
@@ -9643,7 +9615,7 @@
         <v>10.487</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>68.5</v>
       </c>
@@ -9669,7 +9641,7 @@
         <v>9.6210000000000004</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>72.099999999999994</v>
       </c>
@@ -9695,7 +9667,7 @@
         <v>8.734</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>75.7</v>
       </c>
@@ -9721,7 +9693,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>79.3</v>
       </c>
@@ -9747,7 +9719,7 @@
         <v>6.9059999999999997</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>82.9</v>
       </c>
@@ -9773,7 +9745,7 @@
         <v>5.9640000000000004</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>86.5</v>
       </c>
@@ -9799,7 +9771,7 @@
         <v>5.0039999999999996</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>90.1</v>
       </c>
@@ -9825,7 +9797,7 @@
         <v>4.024</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>93.7</v>
       </c>
@@ -9851,7 +9823,7 @@
         <v>3.0489999999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>97.3</v>
       </c>
@@ -9877,7 +9849,7 @@
         <v>2.0489999999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>100.9</v>
       </c>
@@ -9903,7 +9875,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>104.5</v>
       </c>
@@ -9929,7 +9901,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9943,7 +9915,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9969,7 +9941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9989,7 +9961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -10015,7 +9987,7 @@
         <v>25.081</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>3.9</v>
       </c>
@@ -10041,7 +10013,7 @@
         <v>25.068999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>7.9</v>
       </c>
@@ -10067,7 +10039,7 @@
         <v>25.053000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>11.8</v>
       </c>
@@ -10093,7 +10065,7 @@
         <v>24.911000000000001</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>15.7</v>
       </c>
@@ -10119,7 +10091,7 @@
         <v>24.594000000000001</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>19.600000000000001</v>
       </c>
@@ -10145,7 +10117,7 @@
         <v>24.154</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>23.6</v>
       </c>
@@ -10171,7 +10143,7 @@
         <v>23.565999999999999</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>27.5</v>
       </c>
@@ -10197,7 +10169,7 @@
         <v>22.914000000000001</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>31.4</v>
       </c>
@@ -10223,7 +10195,7 @@
         <v>22.202999999999999</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>35.4</v>
       </c>
@@ -10249,7 +10221,7 @@
         <v>21.422999999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>39.299999999999997</v>
       </c>
@@ -10275,7 +10247,7 @@
         <v>20.576000000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>43.2</v>
       </c>
@@ -10301,7 +10273,7 @@
         <v>19.693000000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>47.1</v>
       </c>
@@ -10327,7 +10299,7 @@
         <v>18.792999999999999</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>51.1</v>
       </c>
@@ -10353,7 +10325,7 @@
         <v>17.876000000000001</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>55</v>
       </c>
@@ -10379,7 +10351,7 @@
         <v>16.931999999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>58.9</v>
       </c>
@@ -10405,7 +10377,7 @@
         <v>15.965</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>62.8</v>
       </c>
@@ -10431,7 +10403,7 @@
         <v>14.973000000000001</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>66.8</v>
       </c>
@@ -10457,7 +10429,7 @@
         <v>13.956</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>70.7</v>
       </c>
@@ -10483,7 +10455,7 @@
         <v>12.926</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>74.599999999999994</v>
       </c>
@@ -10509,7 +10481,7 @@
         <v>11.866</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>78.599999999999994</v>
       </c>
@@ -10535,7 +10507,7 @@
         <v>10.786</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>82.5</v>
       </c>
@@ -10561,7 +10533,7 @@
         <v>9.6829999999999998</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>86.4</v>
       </c>
@@ -10587,7 +10559,7 @@
         <v>8.5519999999999996</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>90.3</v>
       </c>
@@ -10613,7 +10585,7 @@
         <v>7.3949999999999996</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>94.3</v>
       </c>
@@ -10639,7 +10611,7 @@
         <v>6.2069999999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>98.2</v>
       </c>
@@ -10665,7 +10637,7 @@
         <v>5.008</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>102.1</v>
       </c>
@@ -10691,7 +10663,7 @@
         <v>3.7970000000000002</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>106.1</v>
       </c>
@@ -10717,7 +10689,7 @@
         <v>2.5590000000000002</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>110</v>
       </c>
@@ -10743,7 +10715,7 @@
         <v>1.282</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>113.9</v>
       </c>
@@ -10769,7 +10741,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10783,7 +10755,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -10809,7 +10781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -10829,7 +10801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10855,7 +10827,7 @@
         <v>29.66</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>4.2</v>
       </c>
@@ -10881,7 +10853,7 @@
         <v>29.673999999999999</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>8.5</v>
       </c>
@@ -10907,7 +10879,7 @@
         <v>29.693000000000001</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>12.7</v>
       </c>
@@ -10933,7 +10905,7 @@
         <v>29.763999999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>16.899999999999999</v>
       </c>
@@ -10959,7 +10931,7 @@
         <v>29.683</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>21.2</v>
       </c>
@@ -10985,7 +10957,7 @@
         <v>29.436</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>25.4</v>
       </c>
@@ -11011,7 +10983,7 @@
         <v>29.087</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>29.6</v>
       </c>
@@ -11037,7 +11009,7 @@
         <v>28.548999999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>33.9</v>
       </c>
@@ -11063,7 +11035,7 @@
         <v>27.902999999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>38.1</v>
       </c>
@@ -11089,7 +11061,7 @@
         <v>27.151</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>42.4</v>
       </c>
@@ -11115,7 +11087,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>46.6</v>
       </c>
@@ -11141,7 +11113,7 @@
         <v>25.334</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>50.8</v>
       </c>
@@ -11167,7 +11139,7 @@
         <v>24.262</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>55.1</v>
       </c>
@@ -11193,7 +11165,7 @@
         <v>23.108000000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>59.3</v>
       </c>
@@ -11219,7 +11191,7 @@
         <v>21.888000000000002</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>63.5</v>
       </c>
@@ -11245,7 +11217,7 @@
         <v>20.567</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>67.8</v>
       </c>
@@ -11271,7 +11243,7 @@
         <v>19.245999999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>72</v>
       </c>
@@ -11297,7 +11269,7 @@
         <v>17.925999999999998</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>76.2</v>
       </c>
@@ -11323,7 +11295,7 @@
         <v>16.577999999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>80.5</v>
       </c>
@@ -11349,7 +11321,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>84.7</v>
       </c>
@@ -11375,7 +11347,7 @@
         <v>13.794</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>88.9</v>
       </c>
@@ -11401,7 +11373,7 @@
         <v>12.356</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>93.2</v>
       </c>
@@ -11427,7 +11399,7 @@
         <v>10.885999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>97.4</v>
       </c>
@@ -11453,7 +11425,7 @@
         <v>9.3919999999999995</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>101.7</v>
       </c>
@@ -11479,7 +11451,7 @@
         <v>7.9020000000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>105.9</v>
       </c>
@@ -11505,7 +11477,7 @@
         <v>6.3970000000000002</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>110.1</v>
       </c>
@@ -11531,7 +11503,7 @@
         <v>4.8650000000000002</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>114.4</v>
       </c>
@@ -11557,7 +11529,7 @@
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>118.6</v>
       </c>
@@ -11583,7 +11555,7 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>122.8</v>
       </c>
@@ -11609,7 +11581,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -11623,7 +11595,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>26</v>
       </c>
@@ -11649,7 +11621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -11669,7 +11641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11695,7 +11667,7 @@
         <v>34.302</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>4.5999999999999996</v>
       </c>
@@ -11721,7 +11693,7 @@
         <v>34.302999999999997</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>9.1999999999999993</v>
       </c>
@@ -11747,7 +11719,7 @@
         <v>34.418999999999997</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>13.9</v>
       </c>
@@ -11773,7 +11745,7 @@
         <v>34.414999999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>18.5</v>
       </c>
@@ -11799,7 +11771,7 @@
         <v>34.405999999999999</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>23.1</v>
       </c>
@@ -11825,7 +11797,7 @@
         <v>34.393999999999998</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>27.7</v>
       </c>
@@ -11851,7 +11823,7 @@
         <v>34.177</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>32.299999999999997</v>
       </c>
@@ -11877,7 +11849,7 @@
         <v>33.69</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>37</v>
       </c>
@@ -11903,7 +11875,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>41.6</v>
       </c>
@@ -11929,7 +11901,7 @@
         <v>32.404000000000003</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>46.2</v>
       </c>
@@ -11955,7 +11927,7 @@
         <v>31.548999999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>50.8</v>
       </c>
@@ -11981,7 +11953,7 @@
         <v>30.550999999999998</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>55.4</v>
       </c>
@@ -12007,7 +11979,7 @@
         <v>29.431999999999999</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>60.1</v>
       </c>
@@ -12033,7 +12005,7 @@
         <v>28.157</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>64.7</v>
       </c>
@@ -12059,7 +12031,7 @@
         <v>26.834</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>69.3</v>
       </c>
@@ -12085,7 +12057,7 @@
         <v>25.515999999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>73.900000000000006</v>
       </c>
@@ -12111,7 +12083,7 @@
         <v>24.132999999999999</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>78.599999999999994</v>
       </c>
@@ -12137,7 +12109,7 @@
         <v>22.684999999999999</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>83.2</v>
       </c>
@@ -12163,7 +12135,7 @@
         <v>21.18</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>87.8</v>
       </c>
@@ -12189,7 +12161,7 @@
         <v>19.608000000000001</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>92.4</v>
       </c>
@@ -12215,7 +12187,7 @@
         <v>17.783000000000001</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>97</v>
       </c>
@@ -12241,7 +12213,7 @@
         <v>15.85</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>101.7</v>
       </c>
@@ -12267,7 +12239,7 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>106.3</v>
       </c>
@@ -12293,7 +12265,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>110.9</v>
       </c>
@@ -12319,7 +12291,7 @@
         <v>10.087999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>115.5</v>
       </c>
@@ -12345,7 +12317,7 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>120.1</v>
       </c>
@@ -12371,7 +12343,7 @@
         <v>6.1340000000000003</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>124.8</v>
       </c>
@@ -12397,7 +12369,7 @@
         <v>4.2910000000000004</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>129.4</v>
       </c>
@@ -12423,7 +12395,7 @@
         <v>2.2160000000000002</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>134</v>
       </c>
@@ -12449,7 +12421,7 @@
         <v>-0.502</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>30</v>
       </c>
@@ -12463,7 +12435,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>26</v>
       </c>
@@ -12489,7 +12461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>40</v>
       </c>
@@ -12509,7 +12481,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>0</v>
       </c>
@@ -12535,7 +12507,7 @@
         <v>38.859000000000002</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>4.9000000000000004</v>
       </c>
@@ -12561,7 +12533,7 @@
         <v>38.780999999999999</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>9.8000000000000007</v>
       </c>
@@ -12587,7 +12559,7 @@
         <v>38.698</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>14.7</v>
       </c>
@@ -12613,7 +12585,7 @@
         <v>38.597000000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>19.600000000000001</v>
       </c>
@@ -12639,7 +12611,7 @@
         <v>38.493000000000002</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>24.5</v>
       </c>
@@ -12665,7 +12637,7 @@
         <v>38.383000000000003</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>29.4</v>
       </c>
@@ -12691,7 +12663,7 @@
         <v>38.262999999999998</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>34.299999999999997</v>
       </c>
@@ -12717,7 +12689,7 @@
         <v>38.01</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>39.200000000000003</v>
       </c>
@@ -12743,7 +12715,7 @@
         <v>37.53</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>44.1</v>
       </c>
@@ -12769,7 +12741,7 @@
         <v>36.909999999999997</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>49</v>
       </c>
@@ -12795,7 +12767,7 @@
         <v>36.127000000000002</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>53.9</v>
       </c>
@@ -12821,7 +12793,7 @@
         <v>35.143999999999998</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>58.8</v>
       </c>
@@ -12847,7 +12819,7 @@
         <v>33.972000000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>63.7</v>
       </c>
@@ -12873,7 +12845,7 @@
         <v>32.475999999999999</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>68.599999999999994</v>
       </c>
@@ -12899,7 +12871,7 @@
         <v>30.821999999999999</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>73.5</v>
       </c>
@@ -12925,7 +12897,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>78.400000000000006</v>
       </c>
@@ -12951,7 +12923,7 @@
         <v>27.504999999999999</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>83.3</v>
       </c>
@@ -12977,7 +12949,7 @@
         <v>25.87</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>88.2</v>
       </c>
@@ -13003,7 +12975,7 @@
         <v>24.181000000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>93.1</v>
       </c>
@@ -13029,7 +13001,7 @@
         <v>22.372</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>98</v>
       </c>
@@ -13055,7 +13027,7 @@
         <v>20.420000000000002</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>102.8</v>
       </c>
@@ -13081,7 +13053,7 @@
         <v>18.373999999999999</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>107.7</v>
       </c>
@@ -13107,7 +13079,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>112.6</v>
       </c>
@@ -13133,7 +13105,7 @@
         <v>14.268000000000001</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>117.5</v>
       </c>
@@ -13159,7 +13131,7 @@
         <v>12.396000000000001</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>122.4</v>
       </c>
@@ -13185,63 +13157,59 @@
         <v>10.438000000000001</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>127.3</v>
       </c>
-      <c r="B562" t="s">
-        <v>46</v>
-      </c>
-      <c r="C562" t="e" cm="1">
-        <f t="array" ref="C562">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D562" t="e" cm="1">
-        <f t="array" ref="D562">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E562" t="e" cm="1">
-        <f t="array" ref="E562">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F562" t="e" cm="1">
-        <f t="array" ref="F562">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G562" t="e" cm="1">
-        <f t="array" ref="G562">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B562">
+        <v>0.6</v>
+      </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
+      <c r="D562">
+        <v>0</v>
+      </c>
+      <c r="E562">
+        <v>0</v>
+      </c>
+      <c r="F562">
+        <v>0</v>
+      </c>
+      <c r="G562">
+        <v>0</v>
+      </c>
+      <c r="H562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>132.19999999999999</v>
       </c>
-      <c r="B563" t="s">
-        <v>47</v>
-      </c>
-      <c r="C563" t="e" cm="1">
-        <f t="array" ref="C563">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D563" t="e" cm="1">
-        <f t="array" ref="D563">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E563" t="e" cm="1">
-        <f t="array" ref="E563">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F563" t="e" cm="1">
-        <f t="array" ref="F563">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G563" t="e" cm="1">
-        <f t="array" ref="G563">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B563">
+        <v>0.62</v>
+      </c>
+      <c r="C563">
+        <v>0</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>0</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>137.1</v>
       </c>
@@ -13267,7 +13235,7 @@
         <v>2.0640000000000001</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>142</v>
       </c>
